--- a/Test/MC_Ssf/T1/Sensors_data_1000027.xlsx
+++ b/Test/MC_Ssf/T1/Sensors_data_1000027.xlsx
@@ -500,13 +500,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.9747280598238338</v>
+        <v>0.9941351536110898</v>
       </c>
       <c r="D3" t="n">
-        <v>0.000900738194453385</v>
+        <v>0.0002090338577200142</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.03526384125106219</v>
+        <v>-0.007680149875966436</v>
       </c>
       <c r="F3" t="n">
         <v>4</v>
@@ -550,13 +550,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.6578855460008577</v>
+        <v>0.9036731622338811</v>
       </c>
       <c r="D5" t="n">
-        <v>0.01246883388173326</v>
+        <v>0.003510764670765468</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.002881220013358998</v>
+        <v>-0.01097944958779351</v>
       </c>
       <c r="F5" t="n">
         <v>2</v>
@@ -575,13 +575,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>-0.7008341465872101</v>
+        <v>-1.057961020499936</v>
       </c>
       <c r="D6" t="n">
-        <v>0.07914353600199944</v>
+        <v>0.095761431203308</v>
       </c>
       <c r="E6" t="n">
-        <v>0.8664151666355911</v>
+        <v>0.8913976394618363</v>
       </c>
       <c r="F6" t="n">
         <v>1</v>
